--- a/classfiers/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
+++ b/classfiers/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9049586776859504</v>
+        <v>0.8007246376811594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9954545454545455</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9480519480519481</v>
+        <v>0.8893360160965795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9945661157024793</v>
+        <v>0.9697999631457177</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7260726072607261</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.841300191204589</v>
+        <v>0.9865470852017937</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9316735537190083</v>
+        <v>0.9998765939942411</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9734513274336283</v>
+        <v>0.9909909909909909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991735537190082</v>
+        <v>0.9992801316330729</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9954337899543378</v>
+        <v>0.995475113122172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9977116704805492</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998962224989623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9954545454545455</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9977220956719818</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9158614294031284</v>
+        <v>0.951263764451529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9972685761726858</v>
+        <v>0.9990950226244344</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9516474465685393</v>
+        <v>0.9729213037186437</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9850618891278916</v>
+        <v>0.9937913377546064</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
+++ b/classfiers/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8007246376811594</v>
+        <v>0.804</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8893360160965795</v>
+        <v>0.8913525498891353</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9697999631457177</v>
+        <v>0.9760154451622484</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9734513274336283</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9865470852017937</v>
+        <v>0.9433962264150945</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998765939942411</v>
+        <v>0.9995024875621891</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9821428571428571</v>
+        <v>0.9660194174757282</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9909909909909909</v>
+        <v>0.9802955665024631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992801316330729</v>
+        <v>0.9983333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.995475113122172</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9977324263038548</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.951263764451529</v>
+        <v>0.9325753120665743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990950226244344</v>
+        <v>0.9980049751243781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9729213037186437</v>
+        <v>0.9625101154441316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9937913377546064</v>
+        <v>0.9947702532115542</v>
       </c>
     </row>
   </sheetData>
